--- a/Сем1/ТВ/lab1.xlsx
+++ b/Сем1/ТВ/lab1.xlsx
@@ -14,10 +14,6 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$C$17:$C$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$F$17:$F$24</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -343,6 +339,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,20 +365,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -587,7 +583,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -625,7 +621,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -713,7 +709,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -747,7 +743,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1425,6 +1421,158 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160021</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>75141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600701" y="3482340"/>
+          <a:ext cx="1264920" cy="509481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198121</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5684521" y="4030980"/>
+          <a:ext cx="1363980" cy="506165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>181148</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>383652</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7514455" y="2969980"/>
+          <a:ext cx="3258048" cy="2214052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257373</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6333690" y="4216600"/>
+          <a:ext cx="543993" cy="1682263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1695,23 +1843,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" t="s">
         <v>17</v>
       </c>
@@ -2098,12 +2246,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2125,11 +2273,11 @@
       <c r="F16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -2189,11 +2337,11 @@
         <f t="shared" ref="F18:F24" si="2">ROUND(E18 / $G$14,3)</f>
         <v>1.6E-2</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -2379,271 +2527,271 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="21"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
+      <c r="A28" s="16">
         <f>1E-100</f>
         <v>1E-100</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="16">
         <f>B18</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="16">
         <f>D17+D18</f>
         <v>11</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="17">
         <f>_xlfn.NORM.DIST(B28,$H$17,$H$21,TRUE)</f>
         <v>0.11224651345237401</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="17">
         <f>D28*$H$1</f>
         <v>11.224651345237401</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="17">
         <f>C28-E28</f>
         <v>-0.22465134523740105</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="17">
         <f>F28*F28</f>
         <v>5.0468226916973953E-2</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="17">
         <f>G28/E28</f>
         <v>4.4961955044053575E-3</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="17">
         <f>C28*C28/E28</f>
         <v>10.779844850267004</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
+      <c r="A29" s="16">
         <f>A19</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="16">
         <f>B19</f>
         <v>19.900000000000002</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="16">
         <f>D19</f>
         <v>18</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="17">
         <f>_xlfn.NORM.DIST(B29,$H$17,$H$21,TRUE)- _xlfn.NORM.DIST(A29,$H$17,$H$21,TRUE)</f>
         <v>0.14388038020312605</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="17">
         <f t="shared" ref="E29:E32" si="5">D29*$H$1</f>
         <v>14.388038020312605</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="17">
         <f t="shared" ref="F29:F33" si="6">C29-E29</f>
         <v>3.6119619796873952</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="17">
         <f t="shared" ref="G29:G33" si="7">F29*F29</f>
         <v>13.046269342707287</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="17">
         <f t="shared" ref="H29:H33" si="8">G29/E29</f>
         <v>0.90674415262796437</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="17">
         <f t="shared" ref="I29:I32" si="9">C29*C29/E29</f>
         <v>22.518706132315359</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
+      <c r="A30" s="16">
         <f t="shared" ref="A30:B30" si="10">A20</f>
         <v>19.900000000000002</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="16">
         <f t="shared" si="10"/>
         <v>24.200000000000003</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="16">
         <f t="shared" ref="C30:C32" si="11">D20</f>
         <v>18</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="17">
         <f t="shared" ref="D30:D32" si="12">_xlfn.NORM.DIST(B30,$H$17,$H$21,TRUE)- _xlfn.NORM.DIST(A30,$H$17,$H$21,TRUE)</f>
         <v>0.20563439483465046</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="17">
         <f t="shared" si="5"/>
         <v>20.563439483465046</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="17">
         <f t="shared" si="6"/>
         <v>-2.5634394834650465</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="17">
         <f t="shared" si="7"/>
         <v>6.5712219853875444</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="17">
         <f t="shared" si="8"/>
         <v>0.31955850531091501</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="17">
         <f t="shared" si="9"/>
         <v>15.756119021845869</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
+      <c r="A31" s="16">
         <f t="shared" ref="A31:B31" si="13">A21</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="16">
         <f t="shared" si="13"/>
         <v>28.500000000000004</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="16">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="17">
         <f t="shared" si="12"/>
         <v>0.21667744500324027</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="17">
         <f t="shared" si="5"/>
         <v>21.667744500324027</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="17">
         <f t="shared" si="6"/>
         <v>-2.6677445003240265</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="17">
         <f t="shared" si="7"/>
         <v>7.1168607190090905</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="17">
         <f t="shared" si="8"/>
         <v>0.32845415538763911</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="17">
         <f t="shared" si="9"/>
         <v>16.660709655063613</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
+      <c r="A32" s="16">
         <f t="shared" ref="A32:B32" si="14">A22</f>
         <v>28.500000000000004</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="16">
         <f t="shared" si="14"/>
         <v>32.800000000000004</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="16">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="17">
         <f t="shared" si="12"/>
         <v>0.16832986048538223</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="17">
         <f t="shared" si="5"/>
         <v>16.832986048538224</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="17">
         <f t="shared" si="6"/>
         <v>-1.8329860485382241</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="17">
         <f t="shared" si="7"/>
         <v>3.359837854135773</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="17">
         <f t="shared" si="8"/>
         <v>0.19959844584006775</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="17">
         <f t="shared" si="9"/>
         <v>13.366612397301843</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+      <c r="A33" s="16">
         <f>A23</f>
         <v>32.800000000000004</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="16">
         <f>1E+100</f>
         <v>1E+100</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="16">
         <f>D23+D24</f>
         <v>19</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="17">
         <f>1-_xlfn.NORM.DIST(A33,$H$17,$H$21,TRUE)</f>
         <v>0.15323140602122698</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="17">
         <f>D33*$H$1</f>
         <v>15.323140602122699</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="17">
         <f t="shared" si="6"/>
         <v>3.6768593978773012</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="17">
         <f t="shared" si="7"/>
         <v>13.519295031758629</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="17">
         <f t="shared" si="8"/>
         <v>0.88227964376218115</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="17">
         <f>C33*C33/E33</f>
         <v>23.559139041639483</v>
       </c>
@@ -2657,44 +2805,44 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="26">
+      <c r="C36" s="18">
         <f>SUM(C28:C33)</f>
         <v>100</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="18">
         <f>SUM(D28:D33)</f>
         <v>1</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="18">
         <f>SUM(E28:E33)</f>
         <v>100</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26" t="s">
+      <c r="F36" s="18"/>
+      <c r="G36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="18">
         <f>SUM(H28:H33)</f>
         <v>2.6411310984331728</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="18">
         <f>SUM(I28:I33)</f>
         <v>102.64113109843318</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="18">
         <f>B34-2-1</f>
         <v>3</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26" t="s">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="18">
         <f>_xlfn.CHISQ.INV.RT(0.05,E37)</f>
         <v>7.8147279032511792</v>
       </c>
